--- a/10 and 15 wt (4).xlsx
+++ b/10 and 15 wt (4).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang9\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang9\Documents\GitHub\hte-data-processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFAECD8-87A0-4C35-BAD4-8EDD860ADAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298FBDF4-550F-47D8-A648-5094C5E8D4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
   <si>
     <t>Sample Number</t>
   </si>
@@ -151,6 +151,12 @@
   <si>
     <t>15wt - 2_0064_UD</t>
   </si>
+  <si>
+    <t>Normalized Thickness STD (%)</t>
+  </si>
+  <si>
+    <t>Normalized Thickness (%)</t>
+  </si>
 </sst>
 </file>
 
@@ -224,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,6 +274,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -275,10 +287,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,6 +1191,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2090111247"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2311,11 +2321,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compresses Thickness'!$D$1</c:f>
+              <c:f>'Compresses Thickness'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Membrane Thickness (um)</c:v>
+                  <c:v>Top Layer Thickness (um)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2389,8 +2399,62 @@
           </c:dLbls>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Compresses Thickness'!$I$2:$I$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>1.7760366018500602</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.7827907834482235</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.3284641503251917</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.2196788456391121</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.7906042462438947</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4.6929615146278065</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Compresses Thickness'!$I$2:$I$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>1.7760366018500602</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.7827907834482235</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.3284641503251917</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.2196788456391121</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.7906042462438947</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4.6929615146278065</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2407,32 +2471,25 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Compresses Thickness'!$A$2:$A$13</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('Compresses Thickness'!$A$2,'Compresses Thickness'!$A$4,'Compresses Thickness'!$A$6,'Compresses Thickness'!$A$8,'Compresses Thickness'!$A$10,'Compresses Thickness'!$A$12)</c:f>
+              <c:f>'Compresses Thickness'!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>10wt - 1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10wt - 2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>10wt - 3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>15wt - 1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>15wt - 2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>15wt - 3</c:v>
                 </c:pt>
               </c:strCache>
@@ -2440,34 +2497,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Compresses Thickness'!$D$2:$D$13</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('Compresses Thickness'!$D$2,'Compresses Thickness'!$D$4,'Compresses Thickness'!$D$6,'Compresses Thickness'!$D$8,'Compresses Thickness'!$D$10,'Compresses Thickness'!$D$12)</c:f>
+              <c:f>'Compresses Thickness'!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>137.28066666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>119.883</c:v>
+                  <c:v>18.508700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124.41500000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>129.82466666666667</c:v>
+                  <c:v>15.537100000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.68400000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>121.92999999999999</c:v>
+                  <c:v>13.8596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.657799999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.982299999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.193000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2478,222 +2528,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Compresses Thickness'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Membrane Thickness STDEV (µm)</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Compresses Thickness'!$A$2:$A$13</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('Compresses Thickness'!$A$2,'Compresses Thickness'!$A$4,'Compresses Thickness'!$A$6,'Compresses Thickness'!$A$8,'Compresses Thickness'!$A$10,'Compresses Thickness'!$A$12)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10wt - 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10wt - 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10wt - 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15wt - 1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15wt - 2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15wt - 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Compresses Thickness'!$E$2:$E$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('Compresses Thickness'!$E$2,'Compresses Thickness'!$E$4,'Compresses Thickness'!$E$6,'Compresses Thickness'!$E$8)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.1599729881912491</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3935335437435725</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8538023757786726</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1603509526575795</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-247E-4B6E-9206-F7AB2DD39002}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Compresses Thickness'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Compressed Thickness STDEV (um)</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Compresses Thickness'!$A$2:$A$13</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('Compresses Thickness'!$A$2,'Compresses Thickness'!$A$4,'Compresses Thickness'!$A$6,'Compresses Thickness'!$A$8,'Compresses Thickness'!$A$10,'Compresses Thickness'!$A$12)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10wt - 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10wt - 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10wt - 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15wt - 1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15wt - 2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15wt - 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Compresses Thickness'!$G$2:$G$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('Compresses Thickness'!$G$2,'Compresses Thickness'!$G$4,'Compresses Thickness'!$G$6,'Compresses Thickness'!$G$8)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.8823818982132066</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0677105696881282</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.37830278878168661</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.37846312017597489</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-247E-4B6E-9206-F7AB2DD39002}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="80"/>
-        <c:overlap val="-20"/>
-        <c:axId val="226284128"/>
-        <c:axId val="226313888"/>
-        <c:extLst/>
-      </c:barChart>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -2777,8 +2611,62 @@
           </c:dLbls>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Compresses Thickness'!$G$2:$G$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>4.8823818982132066</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0677105696881282</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.37830278878168661</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.37846312017597489</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.2263100009487986</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.9864177179796818</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Compresses Thickness'!$G$2:$G$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>4.8823818982132066</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0677105696881282</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.37830278878168661</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.37846312017597489</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.2263100009487986</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.9864177179796818</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2795,32 +2683,25 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Compresses Thickness'!$A$2:$A$13</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('Compresses Thickness'!$A$2,'Compresses Thickness'!$A$4,'Compresses Thickness'!$A$6,'Compresses Thickness'!$A$8,'Compresses Thickness'!$A$10,'Compresses Thickness'!$A$12)</c:f>
+              <c:f>'Compresses Thickness'!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>10wt - 1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10wt - 2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>10wt - 3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>15wt - 1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>15wt - 2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>15wt - 3</c:v>
                 </c:pt>
               </c:strCache>
@@ -2828,33 +2709,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Compresses Thickness'!$F$2:$F$13</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('Compresses Thickness'!$F$2,'Compresses Thickness'!$F$4,'Compresses Thickness'!$F$6,'Compresses Thickness'!$F$8,'Compresses Thickness'!$F$10,'Compresses Thickness'!$F$12)</c:f>
+              <c:f>'Compresses Thickness'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>56.181999999999995</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>37.03</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>31.879000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>33.333333333333336</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>44.969333333333338</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>33.454333333333331</c:v>
                 </c:pt>
               </c:numCache>
@@ -2863,6 +2737,193 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-247E-4B6E-9206-F7AB2DD39002}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compresses Thickness'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normalized Thickness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Compresses Thickness'!$M$2:$M$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>1.2899861417966114</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.5168808881877407</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.4368109750408942</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.5819677306313384</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.3740123502090817</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.5805359768013156</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Compresses Thickness'!$M$2:$M$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>1.2899861417966114</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.5168808881877407</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.4368109750408942</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.5819677306313384</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.3740123502090817</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.5805359768013156</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compresses Thickness'!$L$2:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13.437733644571237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.807823765075568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.117937930089154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.602945065693994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.539321882249141</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.275228534959677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC2E-4F8F-813E-A7F3E460B0BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2874,10 +2935,435 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="350"/>
+        <c:gapWidth val="500"/>
         <c:overlap val="-38"/>
-        <c:axId val="226283168"/>
-        <c:axId val="226299968"/>
+        <c:axId val="226284128"/>
+        <c:axId val="226313888"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Compresses Thickness'!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Membrane Thickness STDEV (µm)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:errBars>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="stdErr"/>
+                  <c:noEndCap val="0"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:errBars>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Compresses Thickness'!$A$2:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>10wt - 1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10wt - 2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10wt - 3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>15wt - 1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15wt - 2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15wt - 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Compresses Thickness'!$E$2:$E$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1.1599729881912491</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4.3935335437435725</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.8538023757786726</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.1603509526575795</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-247E-4B6E-9206-F7AB2DD39002}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Compresses Thickness'!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Compressed Thickness STDEV (um)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Compresses Thickness'!$A$2:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>10wt - 1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10wt - 2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10wt - 3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>15wt - 1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15wt - 2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15wt - 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Compresses Thickness'!$G$2:$G$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>4.8823818982132066</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0677105696881282</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.37830278878168661</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.37846312017597489</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-247E-4B6E-9206-F7AB2DD39002}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Compresses Thickness'!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Membrane Thickness (um)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:errBars>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="cust"/>
+                  <c:noEndCap val="0"/>
+                  <c:plus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>'Compresses Thickness'!$E$2:$E$13</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="12"/>
+                        <c:pt idx="0">
+                          <c:v>1.1599729881912491</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>4.3935335437435725</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2.8538023757786726</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>1.1603509526575795</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>0.87700000000000244</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2.7389120102697739</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:plus>
+                  <c:minus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>'Compresses Thickness'!$E$2:$E$13</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="12"/>
+                        <c:pt idx="0">
+                          <c:v>1.1599729881912491</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>4.3935335437435725</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2.8538023757786726</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>1.1603509526575795</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>0.87700000000000244</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2.7389120102697739</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:minus>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:errBars>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Compresses Thickness'!$D$2:$D$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>137.28066666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>119.883</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>124.41500000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>129.82466666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>123.68400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>121.92999999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-FC2E-4F8F-813E-A7F3E460B0BF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="226284128"/>
@@ -2934,7 +3420,7 @@
         <c:axId val="226313888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3050,40 +3536,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="226299968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226283168"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="226283168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226299968"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3094,14 +3546,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4894,16 +5338,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1223119</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>25854</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149483</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>194871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1156607</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>82412</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>158611</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5839,7 +6283,7 @@
   <dimension ref="A1:AD94"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7595,8 +8039,8 @@
   </sheetPr>
   <dimension ref="A1:AD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7634,9 +8078,24 @@
       <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -7656,232 +8115,412 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="24">
         <v>1</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="22">
         <f>AVERAGE(C17:C19)</f>
         <v>137.28066666666666</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="22">
         <f>STDEV(C17:C19)</f>
         <v>1.1599729881912491</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="22">
         <f>AVERAGE(D17:D19)</f>
         <v>56.181999999999995</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="22">
         <f>STDEV(D17:D19)</f>
         <v>4.8823818982132066</v>
       </c>
+      <c r="H2" s="22">
+        <f>'Top Layer'!C3</f>
+        <v>18.508700000000001</v>
+      </c>
+      <c r="I2" s="22">
+        <f>'Top Layer'!D3</f>
+        <v>1.7760366018500602</v>
+      </c>
+      <c r="J2" s="22">
+        <f>'Top Layer'!E3</f>
+        <v>0.13437733644571237</v>
+      </c>
+      <c r="K2" s="22">
+        <f>'Top Layer'!F3</f>
+        <v>1.2899861417966115E-2</v>
+      </c>
+      <c r="L2" s="25">
+        <f>100*J2</f>
+        <v>13.437733644571237</v>
+      </c>
+      <c r="M2" s="25">
+        <f>100*K2</f>
+        <v>1.2899861417966114</v>
+      </c>
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="23">
         <v>2</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <f>AVERAGE(C20:C22)</f>
         <v>119.883</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="22">
         <f>STDEV(C20:C22)</f>
         <v>4.3935335437435725</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="22">
         <f>AVERAGE(D20:D22)</f>
         <v>37.03</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="22">
         <f>STDEV(D20:D22)</f>
         <v>2.0677105696881282</v>
       </c>
+      <c r="H4" s="22">
+        <f>'Top Layer'!C4</f>
+        <v>15.537100000000001</v>
+      </c>
+      <c r="I4" s="22">
+        <f>'Top Layer'!D4</f>
+        <v>2.7827907834482235</v>
+      </c>
+      <c r="J4" s="22">
+        <f>'Top Layer'!E4</f>
+        <v>0.12807823765075568</v>
+      </c>
+      <c r="K4" s="22">
+        <f>'Top Layer'!F4</f>
+        <v>2.5168808881877409E-2</v>
+      </c>
+      <c r="L4" s="25">
+        <f t="shared" ref="L4:L13" si="0">100*J4</f>
+        <v>12.807823765075568</v>
+      </c>
+      <c r="M4" s="25">
+        <f t="shared" ref="M4:M13" si="1">100*K4</f>
+        <v>2.5168808881877407</v>
+      </c>
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="23">
         <v>3</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="22">
         <f>AVERAGE(C23:C25)</f>
         <v>124.41500000000001</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="22">
         <f>STDEV(C23:C25)</f>
         <v>2.8538023757786726</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="22">
         <f>AVERAGE(D23:D25)</f>
         <v>31.879000000000001</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="22">
         <f>STDEV(D23:D25)</f>
         <v>0.37830278878168661</v>
       </c>
+      <c r="H6" s="22">
+        <f>'Top Layer'!C5</f>
+        <v>13.8596</v>
+      </c>
+      <c r="I6" s="22">
+        <f>'Top Layer'!D5</f>
+        <v>3.3284641503251917</v>
+      </c>
+      <c r="J6" s="22">
+        <f>'Top Layer'!E5</f>
+        <v>0.11117937930089153</v>
+      </c>
+      <c r="K6" s="22">
+        <f>'Top Layer'!F5</f>
+        <v>2.4368109750408942E-2</v>
+      </c>
+      <c r="L6" s="25">
+        <f t="shared" ref="L6:L13" si="2">100*J6</f>
+        <v>11.117937930089154</v>
+      </c>
+      <c r="M6" s="25">
+        <f t="shared" ref="M6:M13" si="3">100*K6</f>
+        <v>2.4368109750408942</v>
+      </c>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="23">
         <v>4</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="21">
         <f>AVERAGE(C26:C28)</f>
         <v>129.82466666666667</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="22">
         <f>STDEV(C26:C28)</f>
         <v>1.1603509526575795</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="22">
         <f>AVERAGE(D26:D28)</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="22">
         <f>STDEV(D26:D28)</f>
         <v>0.37846312017597489</v>
       </c>
+      <c r="H8" s="22">
+        <f>'Top Layer'!C7</f>
+        <v>25.657799999999998</v>
+      </c>
+      <c r="I8" s="22">
+        <f>'Top Layer'!D7</f>
+        <v>2.2196788456391121</v>
+      </c>
+      <c r="J8" s="22">
+        <f>'Top Layer'!E7</f>
+        <v>0.19602945065693994</v>
+      </c>
+      <c r="K8" s="22">
+        <f>'Top Layer'!F7</f>
+        <v>1.5819677306313385E-2</v>
+      </c>
+      <c r="L8" s="25">
+        <f t="shared" ref="L8:L13" si="4">100*J8</f>
+        <v>19.602945065693994</v>
+      </c>
+      <c r="M8" s="25">
+        <f t="shared" ref="M8:M13" si="5">100*K8</f>
+        <v>1.5819677306313384</v>
+      </c>
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="23">
         <v>5</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="21">
         <f>AVERAGE(C29:C31)</f>
         <v>123.68400000000001</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <f>STDEV(C29:C31)</f>
         <v>0.87700000000000244</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="21">
         <f>AVERAGE(D29:D31)</f>
         <v>44.969333333333338</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="21">
         <f>_xlfn.STDEV.P(D29:D31)</f>
         <v>3.2263100009487986</v>
       </c>
+      <c r="H10" s="22">
+        <f>'Top Layer'!C8</f>
+        <v>17.982299999999999</v>
+      </c>
+      <c r="I10" s="22">
+        <f>'Top Layer'!D8</f>
+        <v>1.7906042462438947</v>
+      </c>
+      <c r="J10" s="22">
+        <f>'Top Layer'!E8</f>
+        <v>0.1453932188224914</v>
+      </c>
+      <c r="K10" s="22">
+        <f>'Top Layer'!F8</f>
+        <v>1.3740123502090817E-2</v>
+      </c>
+      <c r="L10" s="25">
+        <f t="shared" ref="L10:L13" si="6">100*J10</f>
+        <v>14.539321882249141</v>
+      </c>
+      <c r="M10" s="25">
+        <f t="shared" ref="M10:M13" si="7">100*K10</f>
+        <v>1.3740123502090817</v>
+      </c>
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="23">
         <v>6</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="21">
         <f>AVERAGE(C32:C34)</f>
         <v>121.92999999999999</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <f>STDEV(C32:C34)</f>
         <v>2.7389120102697739</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="21">
         <f>AVERAGE(D32:D34)</f>
         <v>33.454333333333331</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="21">
         <f>_xlfn.STDEV.P(D32:D34)</f>
         <v>3.9864177179796818</v>
       </c>
+      <c r="H12" s="22">
+        <f>'Top Layer'!C9</f>
+        <v>22.193000000000001</v>
+      </c>
+      <c r="I12" s="22">
+        <f>'Top Layer'!D9</f>
+        <v>4.6929615146278065</v>
+      </c>
+      <c r="J12" s="22">
+        <f>'Top Layer'!E9</f>
+        <v>0.18275228534959678</v>
+      </c>
+      <c r="K12" s="22">
+        <f>'Top Layer'!F9</f>
+        <v>3.5805359768013155E-2</v>
+      </c>
+      <c r="L12" s="25">
+        <f>100*J12</f>
+        <v>18.275228534959677</v>
+      </c>
+      <c r="M12" s="25">
+        <f t="shared" ref="M12:M13" si="8">100*K12</f>
+        <v>3.5805359768013156</v>
+      </c>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
@@ -8213,7 +8852,67 @@
       <c r="F44" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="72">
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
@@ -8226,30 +8925,6 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/10 and 15 wt (4).xlsx
+++ b/10 and 15 wt (4).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang9\Documents\GitHub\hte-data-processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298FBDF4-550F-47D8-A648-5094C5E8D4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861F6218-62DA-43A4-ADD7-94744A436D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,7 +275,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,7 +287,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2317,218 +2317,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Compresses Thickness'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Top Layer Thickness (um)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Compresses Thickness'!$I$2:$I$13</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="12"/>
-                  <c:pt idx="0">
-                    <c:v>1.7760366018500602</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.7827907834482235</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.3284641503251917</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.2196788456391121</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1.7906042462438947</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>4.6929615146278065</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Compresses Thickness'!$I$2:$I$13</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="12"/>
-                  <c:pt idx="0">
-                    <c:v>1.7760366018500602</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.7827907834482235</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.3284641503251917</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2.2196788456391121</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>1.7906042462438947</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>4.6929615146278065</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Compresses Thickness'!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10wt - 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10wt - 2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10wt - 3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15wt - 1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15wt - 2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15wt - 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Compresses Thickness'!$H$2:$H$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>18.508700000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.537100000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.8596</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.657799999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.982299999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22.193000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-247E-4B6E-9206-F7AB2DD39002}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
@@ -2927,6 +2715,197 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compresses Thickness'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Membrane Thickness (um)</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Compresses Thickness'!$E$2:$E$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>1.1599729881912491</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.3935335437435725</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.8538023757786726</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1603509526575795</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.87700000000000244</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.7389120102697739</c:v>
+                  </c:pt>
+                </c:numCache>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Compresses Thickness'!$E$2:$E$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>1.1599729881912491</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.3935335437435725</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.8538023757786726</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1603509526575795</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.87700000000000244</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.7389120102697739</c:v>
+                  </c:pt>
+                </c:numCache>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compresses Thickness'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>137.28066666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119.883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124.41500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.82466666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123.68400000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121.92999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC2E-4F8F-813E-A7F3E460B0BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2943,37 +2922,162 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Compresses Thickness'!$E$1</c15:sqref>
+                          <c15:sqref>'Compresses Thickness'!$H$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Membrane Thickness STDEV (µm)</c:v>
+                        <c:v>Top Layer Thickness (um)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:noFill/>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
                   <a:ln>
                     <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:errBars>
                   <c:errBarType val="both"/>
-                  <c:errValType val="stdErr"/>
+                  <c:errValType val="cust"/>
                   <c:noEndCap val="0"/>
+                  <c:plus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>'Compresses Thickness'!$I$2:$I$13</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="12"/>
+                        <c:pt idx="0">
+                          <c:v>1.7760366018500602</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2.7827907834482235</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>3.3284641503251917</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2.2196788456391121</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>1.7906042462438947</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>4.6929615146278065</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:plus>
+                  <c:minus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>'Compresses Thickness'!$I$2:$I$13</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="12"/>
+                        <c:pt idx="0">
+                          <c:v>1.7760366018500602</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2.7827907834482235</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>3.3284641503251917</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2.2196788456391121</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>1.7906042462438947</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>4.6929615146278065</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:minus>
                   <c:spPr>
                     <a:noFill/>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3025,6 +3129,125 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
+                          <c15:sqref>'Compresses Thickness'!$H$2:$H$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>18.508700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>15.537100000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>13.8596</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>25.657799999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>17.982299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>22.193000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-247E-4B6E-9206-F7AB2DD39002}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Compresses Thickness'!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Membrane Thickness STDEV (µm)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:errBars>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="stdErr"/>
+                  <c:noEndCap val="0"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:errBars>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Compresses Thickness'!$A$2:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>10wt - 1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10wt - 2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10wt - 3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>15wt - 1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15wt - 2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15wt - 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
                           <c15:sqref>'Compresses Thickness'!$E$2:$E$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
@@ -3047,7 +3270,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-247E-4B6E-9206-F7AB2DD39002}"/>
                   </c:ext>
@@ -3085,7 +3308,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Compresses Thickness'!$A$2:$A$13</c15:sqref>
@@ -3117,7 +3340,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Compresses Thickness'!$G$2:$G$8</c15:sqref>
@@ -3145,219 +3368,6 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-247E-4B6E-9206-F7AB2DD39002}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Compresses Thickness'!$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Membrane Thickness (um)</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:errBars>
-                  <c:errBarType val="both"/>
-                  <c:errValType val="cust"/>
-                  <c:noEndCap val="0"/>
-                  <c:plus>
-                    <c:numRef>
-                      <c:extLst>
-                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                          <c15:formulaRef>
-                            <c15:sqref>'Compresses Thickness'!$E$2:$E$13</c15:sqref>
-                          </c15:formulaRef>
-                        </c:ext>
-                      </c:extLst>
-                      <c:numCache>
-                        <c:formatCode>General</c:formatCode>
-                        <c:ptCount val="12"/>
-                        <c:pt idx="0">
-                          <c:v>1.1599729881912491</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>4.3935335437435725</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2.8538023757786726</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>1.1603509526575795</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>0.87700000000000244</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2.7389120102697739</c:v>
-                        </c:pt>
-                      </c:numCache>
-                    </c:numRef>
-                  </c:plus>
-                  <c:minus>
-                    <c:numRef>
-                      <c:extLst>
-                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                          <c15:formulaRef>
-                            <c15:sqref>'Compresses Thickness'!$E$2:$E$13</c15:sqref>
-                          </c15:formulaRef>
-                        </c:ext>
-                      </c:extLst>
-                      <c:numCache>
-                        <c:formatCode>General</c:formatCode>
-                        <c:ptCount val="12"/>
-                        <c:pt idx="0">
-                          <c:v>1.1599729881912491</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>4.3935335437435725</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2.8538023757786726</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>1.1603509526575795</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>0.87700000000000244</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2.7389120102697739</c:v>
-                        </c:pt>
-                      </c:numCache>
-                    </c:numRef>
-                  </c:minus>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:errBars>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Compresses Thickness'!$D$2:$D$13</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>137.28066666666666</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>119.883</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>124.41500000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>129.82466666666667</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>123.68400000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>121.92999999999999</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-FC2E-4F8F-813E-A7F3E460B0BF}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -5338,16 +5348,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>149483</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1987808</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>194871</xdr:rowOff>
+      <xdr:rowOff>61521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>82412</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1215887</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>158611</xdr:rowOff>
+      <xdr:rowOff>25261</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8039,8 +8049,8 @@
   </sheetPr>
   <dimension ref="A1:AD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8156,11 +8166,11 @@
         <f>'Top Layer'!F3</f>
         <v>1.2899861417966115E-2</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="21">
         <f>100*J2</f>
         <v>13.437733644571237</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="21">
         <f>100*K2</f>
         <v>1.2899861417966114</v>
       </c>
@@ -8179,8 +8189,8 @@
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
@@ -8224,12 +8234,12 @@
         <f>'Top Layer'!F4</f>
         <v>2.5168808881877409E-2</v>
       </c>
-      <c r="L4" s="25">
-        <f t="shared" ref="L4:L13" si="0">100*J4</f>
+      <c r="L4" s="21">
+        <f t="shared" ref="L4" si="0">100*J4</f>
         <v>12.807823765075568</v>
       </c>
-      <c r="M4" s="25">
-        <f t="shared" ref="M4:M13" si="1">100*K4</f>
+      <c r="M4" s="21">
+        <f t="shared" ref="M4" si="1">100*K4</f>
         <v>2.5168808881877407</v>
       </c>
     </row>
@@ -8247,8 +8257,8 @@
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
@@ -8292,12 +8302,12 @@
         <f>'Top Layer'!F5</f>
         <v>2.4368109750408942E-2</v>
       </c>
-      <c r="L6" s="25">
-        <f t="shared" ref="L6:L13" si="2">100*J6</f>
+      <c r="L6" s="21">
+        <f t="shared" ref="L6" si="2">100*J6</f>
         <v>11.117937930089154</v>
       </c>
-      <c r="M6" s="25">
-        <f t="shared" ref="M6:M13" si="3">100*K6</f>
+      <c r="M6" s="21">
+        <f t="shared" ref="M6" si="3">100*K6</f>
         <v>2.4368109750408942</v>
       </c>
     </row>
@@ -8315,8 +8325,8 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
@@ -8328,7 +8338,7 @@
       <c r="C8" s="23">
         <v>4</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="25">
         <f>AVERAGE(C26:C28)</f>
         <v>129.82466666666667</v>
       </c>
@@ -8360,12 +8370,12 @@
         <f>'Top Layer'!F7</f>
         <v>1.5819677306313385E-2</v>
       </c>
-      <c r="L8" s="25">
-        <f t="shared" ref="L8:L13" si="4">100*J8</f>
+      <c r="L8" s="21">
+        <f t="shared" ref="L8" si="4">100*J8</f>
         <v>19.602945065693994</v>
       </c>
-      <c r="M8" s="25">
-        <f t="shared" ref="M8:M13" si="5">100*K8</f>
+      <c r="M8" s="21">
+        <f t="shared" ref="M8" si="5">100*K8</f>
         <v>1.5819677306313384</v>
       </c>
     </row>
@@ -8375,7 +8385,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="23"/>
-      <c r="D9" s="21"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -8383,8 +8393,8 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
@@ -8396,19 +8406,19 @@
       <c r="C10" s="23">
         <v>5</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="25">
         <f>AVERAGE(C29:C31)</f>
         <v>123.68400000000001</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="25">
         <f>STDEV(C29:C31)</f>
         <v>0.87700000000000244</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="25">
         <f>AVERAGE(D29:D31)</f>
         <v>44.969333333333338</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="25">
         <f>_xlfn.STDEV.P(D29:D31)</f>
         <v>3.2263100009487986</v>
       </c>
@@ -8428,12 +8438,12 @@
         <f>'Top Layer'!F8</f>
         <v>1.3740123502090817E-2</v>
       </c>
-      <c r="L10" s="25">
-        <f t="shared" ref="L10:L13" si="6">100*J10</f>
+      <c r="L10" s="21">
+        <f t="shared" ref="L10" si="6">100*J10</f>
         <v>14.539321882249141</v>
       </c>
-      <c r="M10" s="25">
-        <f t="shared" ref="M10:M13" si="7">100*K10</f>
+      <c r="M10" s="21">
+        <f t="shared" ref="M10" si="7">100*K10</f>
         <v>1.3740123502090817</v>
       </c>
     </row>
@@ -8443,16 +8453,16 @@
         <v>37</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -8464,19 +8474,19 @@
       <c r="C12" s="23">
         <v>6</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="25">
         <f>AVERAGE(C32:C34)</f>
         <v>121.92999999999999</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="25">
         <f>STDEV(C32:C34)</f>
         <v>2.7389120102697739</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="25">
         <f>AVERAGE(D32:D34)</f>
         <v>33.454333333333331</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="25">
         <f>_xlfn.STDEV.P(D32:D34)</f>
         <v>3.9864177179796818</v>
       </c>
@@ -8496,12 +8506,12 @@
         <f>'Top Layer'!F9</f>
         <v>3.5805359768013155E-2</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="21">
         <f>100*J12</f>
         <v>18.275228534959677</v>
       </c>
-      <c r="M12" s="25">
-        <f t="shared" ref="M12:M13" si="8">100*K12</f>
+      <c r="M12" s="21">
+        <f t="shared" ref="M12" si="8">100*K12</f>
         <v>3.5805359768013156</v>
       </c>
     </row>
@@ -8511,16 +8521,16 @@
         <v>35</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
@@ -8853,42 +8863,30 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
@@ -8901,30 +8899,42 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/10 and 15 wt (4).xlsx
+++ b/10 and 15 wt (4).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang9\Documents\GitHub\hte-data-processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861F6218-62DA-43A4-ADD7-94744A436D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEDB970-80F3-44F9-AE24-E41ED09310E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="1935" windowWidth="15345" windowHeight="12945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mem and Pore Thickness " sheetId="4" r:id="rId1"/>
@@ -275,7 +275,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,7 +287,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5349,15 +5349,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1987808</xdr:colOff>
+      <xdr:colOff>1592036</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>61521</xdr:rowOff>
+      <xdr:rowOff>61522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1215887</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>25261</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5590,7 +5590,7 @@
   </sheetPr>
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -6292,8 +6292,8 @@
   </sheetPr>
   <dimension ref="A1:AD94"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8049,8 +8049,8 @@
   </sheetPr>
   <dimension ref="A1:AD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="D10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8166,11 +8166,11 @@
         <f>'Top Layer'!F3</f>
         <v>1.2899861417966115E-2</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="25">
         <f>100*J2</f>
         <v>13.437733644571237</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="25">
         <f>100*K2</f>
         <v>1.2899861417966114</v>
       </c>
@@ -8189,8 +8189,8 @@
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
@@ -8234,11 +8234,11 @@
         <f>'Top Layer'!F4</f>
         <v>2.5168808881877409E-2</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="25">
         <f t="shared" ref="L4" si="0">100*J4</f>
         <v>12.807823765075568</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="25">
         <f t="shared" ref="M4" si="1">100*K4</f>
         <v>2.5168808881877407</v>
       </c>
@@ -8257,8 +8257,8 @@
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
@@ -8302,11 +8302,11 @@
         <f>'Top Layer'!F5</f>
         <v>2.4368109750408942E-2</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="25">
         <f t="shared" ref="L6" si="2">100*J6</f>
         <v>11.117937930089154</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="25">
         <f t="shared" ref="M6" si="3">100*K6</f>
         <v>2.4368109750408942</v>
       </c>
@@ -8325,8 +8325,8 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
@@ -8338,7 +8338,7 @@
       <c r="C8" s="23">
         <v>4</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="21">
         <f>AVERAGE(C26:C28)</f>
         <v>129.82466666666667</v>
       </c>
@@ -8370,11 +8370,11 @@
         <f>'Top Layer'!F7</f>
         <v>1.5819677306313385E-2</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="25">
         <f t="shared" ref="L8" si="4">100*J8</f>
         <v>19.602945065693994</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="25">
         <f t="shared" ref="M8" si="5">100*K8</f>
         <v>1.5819677306313384</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="23"/>
-      <c r="D9" s="25"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -8393,8 +8393,8 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
@@ -8406,19 +8406,19 @@
       <c r="C10" s="23">
         <v>5</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="21">
         <f>AVERAGE(C29:C31)</f>
         <v>123.68400000000001</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="21">
         <f>STDEV(C29:C31)</f>
         <v>0.87700000000000244</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="21">
         <f>AVERAGE(D29:D31)</f>
         <v>44.969333333333338</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="21">
         <f>_xlfn.STDEV.P(D29:D31)</f>
         <v>3.2263100009487986</v>
       </c>
@@ -8438,11 +8438,11 @@
         <f>'Top Layer'!F8</f>
         <v>1.3740123502090817E-2</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="25">
         <f t="shared" ref="L10" si="6">100*J10</f>
         <v>14.539321882249141</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="25">
         <f t="shared" ref="M10" si="7">100*K10</f>
         <v>1.3740123502090817</v>
       </c>
@@ -8453,16 +8453,16 @@
         <v>37</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -8474,19 +8474,19 @@
       <c r="C12" s="23">
         <v>6</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="21">
         <f>AVERAGE(C32:C34)</f>
         <v>121.92999999999999</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="21">
         <f>STDEV(C32:C34)</f>
         <v>2.7389120102697739</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="21">
         <f>AVERAGE(D32:D34)</f>
         <v>33.454333333333331</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="21">
         <f>_xlfn.STDEV.P(D32:D34)</f>
         <v>3.9864177179796818</v>
       </c>
@@ -8506,11 +8506,11 @@
         <f>'Top Layer'!F9</f>
         <v>3.5805359768013155E-2</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="25">
         <f>100*J12</f>
         <v>18.275228534959677</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="25">
         <f t="shared" ref="M12" si="8">100*K12</f>
         <v>3.5805359768013156</v>
       </c>
@@ -8521,16 +8521,16 @@
         <v>35</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
@@ -8863,6 +8863,66 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
@@ -8875,66 +8935,6 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
